--- a/biology/Médecine/Maladie_génétique_du_métabolisme_de_l'urée/Maladie_génétique_du_métabolisme_de_l'urée.xlsx
+++ b/biology/Médecine/Maladie_génétique_du_métabolisme_de_l'urée/Maladie_génétique_du_métabolisme_de_l'urée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_de_l%27ur%C3%A9e</t>
+          <t>Maladie_génétique_du_métabolisme_de_l'urée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies génétiques du métabolisme de l'urée comprennent les maladies en rapport avec une anomalie du métabolisme de l'urée par défaut du fonctionnement enzymatique d'un des enzymes secondaire à un défaut du gène codant l'enzyme impliqué.
 Le cycle de l'urée est la voie métabolique par laquelle l'ammoniaque est transformé en urée. Les anomalies de fonctionnement des quatre premiers enzymes aboutissent à l’accumulation d'ammoniaque et de ses métabolites durant les premiers jours de vie et font rapidement apparaître des signes neurologiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_de_l%27ur%C3%A9e</t>
+          <t>Maladie_génétique_du_métabolisme_de_l'urée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence de cette pathologie est estimée à un sur 30 000 naissances.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_de_l%27ur%C3%A9e</t>
+          <t>Maladie_génétique_du_métabolisme_de_l'urée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les enzymes impliqués dans le métabolisme de l'urée sont, dans l'ordre de leur intervention :
 Carbamyl-phosphate synthétase
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_de_l%27ur%C3%A9e</t>
+          <t>Maladie_génétique_du_métabolisme_de_l'urée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le diagnostic repose sur la clinique, la biologie et les données génétiques :
 Une concentration plasmatique d'ammoniaque supérieure à 150 micromoles par litre avec glycémie normale associé à une absence de trou anionique est très évocateur d'un trouble du métabolisme de l'urée.</t>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_de_l%27ur%C3%A9e</t>
+          <t>Maladie_génétique_du_métabolisme_de_l'urée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,6 +640,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_g%C3%A9n%C3%A9tique_du_m%C3%A9tabolisme_de_l%27ur%C3%A9e</t>
+          <t>Maladie_génétique_du_métabolisme_de_l'urée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,11 +667,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site français sur les maladies rares
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [8]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.[9]
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD.
  Portail de la médecine                     </t>
         </is>
       </c>
